--- a/burndownchart.xlsx
+++ b/burndownchart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NPMa.skp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NPMa.skp\AppData\Local\Temp\scp30233\home\pihl\GemmeGag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C29168EC-C3EF-4DE7-A2ED-6B44C40E3B3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D8705C-18C8-4BD7-A236-33416948D356}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{880ECEA2-B438-484A-9CBA-91374F2777E2}"/>
   </bookViews>
@@ -841,6 +841,15 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -852,15 +861,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1015,7 +1015,7 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#N/A</c:v>
@@ -1565,7 +1565,7 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#N/A</c:v>
@@ -3544,7 +3544,7 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AA10" sqref="AA10"/>
+      <selection pane="bottomRight" activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3557,8 +3557,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="41"/>
-      <c r="B1" s="41"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -3583,19 +3583,19 @@
       <c r="X1" s="16"/>
     </row>
     <row r="2" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="37" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="33">
         <v>4</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -3615,18 +3615,18 @@
     <row r="3" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
       <c r="G3" s="33">
         <f>B38</f>
         <v>35</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -3646,12 +3646,12 @@
     <row r="4" spans="1:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
       <c r="G4" s="33">
         <v>5</v>
       </c>
@@ -3702,36 +3702,36 @@
       <c r="X5" s="16"/>
     </row>
     <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="42" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="38" t="s">
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="X6" s="39"/>
+      <c r="X6" s="42"/>
     </row>
     <row r="7" spans="1:24" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -3886,7 +3886,9 @@
       <c r="B10" s="21">
         <v>3</v>
       </c>
-      <c r="C10" s="22"/>
+      <c r="C10" s="22">
+        <v>3</v>
+      </c>
       <c r="D10" s="23"/>
       <c r="E10" s="22"/>
       <c r="F10" s="23"/>
@@ -3908,11 +3910,11 @@
       <c r="V10" s="23"/>
       <c r="W10" s="28">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X10" s="17">
         <f t="shared" ref="X10:X38" si="1">IFERROR(1-(W10/B10),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -3922,7 +3924,9 @@
       <c r="B11" s="21">
         <v>3</v>
       </c>
-      <c r="C11" s="22"/>
+      <c r="C11" s="22">
+        <v>3</v>
+      </c>
       <c r="D11" s="23"/>
       <c r="E11" s="22"/>
       <c r="F11" s="23"/>
@@ -3944,11 +3948,11 @@
       <c r="V11" s="23"/>
       <c r="W11" s="28">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X11" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -4861,9 +4865,9 @@
         <f>SUM(B8:B37)</f>
         <v>35</v>
       </c>
-      <c r="C38" s="11" t="e">
+      <c r="C38" s="11">
         <f>IFERROR(IF(B38-SUM(C8:C37)=B38,NA(),B38-SUM(C8:C37)),NA())</f>
-        <v>#N/A</v>
+        <v>29</v>
       </c>
       <c r="D38" s="11" t="e">
         <f t="shared" ref="D38:V38" si="2">IFERROR(IF(C38-SUM(D8:D37)=C38,NA(),C38-SUM(D8:D37)),NA())</f>
@@ -4943,11 +4947,11 @@
       </c>
       <c r="W38" s="35">
         <f>SUM(W8:W37)</f>
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="X38" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.17142857142857137</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">

--- a/burndownchart.xlsx
+++ b/burndownchart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NPMa.skp\AppData\Local\Temp\scp30233\home\pihl\GemmeGag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NPMa.skp\AppData\Local\Temp\scp32749\home\pihl\GemmeGag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D8705C-18C8-4BD7-A236-33416948D356}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B80293C-EB3C-424A-BA78-A20B58B2FBB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{880ECEA2-B438-484A-9CBA-91374F2777E2}"/>
   </bookViews>
@@ -1015,10 +1015,10 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
@@ -1565,10 +1565,10 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
@@ -3544,7 +3544,7 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Z9" sqref="Z9"/>
+      <selection pane="bottomRight" activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3814,8 +3814,12 @@
       <c r="B8" s="18">
         <v>8</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
+      <c r="C8" s="19">
+        <v>4</v>
+      </c>
+      <c r="D8" s="20">
+        <v>4</v>
+      </c>
       <c r="E8" s="19"/>
       <c r="F8" s="20"/>
       <c r="G8" s="19"/>
@@ -3836,11 +3840,11 @@
       <c r="V8" s="20"/>
       <c r="W8" s="27">
         <f>B8-SUM(C8:V8)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X8" s="17">
         <f>IFERROR(1-(W8/B8),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -4867,11 +4871,11 @@
       </c>
       <c r="C38" s="11">
         <f>IFERROR(IF(B38-SUM(C8:C37)=B38,NA(),B38-SUM(C8:C37)),NA())</f>
-        <v>29</v>
-      </c>
-      <c r="D38" s="11" t="e">
+        <v>25</v>
+      </c>
+      <c r="D38" s="11">
         <f t="shared" ref="D38:V38" si="2">IFERROR(IF(C38-SUM(D8:D37)=C38,NA(),C38-SUM(D8:D37)),NA())</f>
-        <v>#N/A</v>
+        <v>21</v>
       </c>
       <c r="E38" s="11" t="e">
         <f t="shared" si="2"/>
@@ -4947,11 +4951,11 @@
       </c>
       <c r="W38" s="35">
         <f>SUM(W8:W37)</f>
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="X38" s="30">
         <f t="shared" si="1"/>
-        <v>0.17142857142857137</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">

--- a/burndownchart.xlsx
+++ b/burndownchart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NPMa.skp\AppData\Local\Temp\scp30233\home\pihl\GemmeGag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NPMa.skp\AppData\Local\Temp\scp32749\home\pihl\GemmeGag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456773E8-8544-4788-9E43-B6836F82B870}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51432139-2A80-43BC-B6A0-711D7F589B90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{880ECEA2-B438-484A-9CBA-91374F2777E2}"/>
   </bookViews>
@@ -1015,10 +1015,10 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
@@ -1565,10 +1565,10 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
@@ -3541,10 +3541,10 @@
   <dimension ref="A1:X40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Z8" sqref="Z8"/>
+      <selection pane="bottomRight" activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3815,9 +3815,11 @@
         <v>8</v>
       </c>
       <c r="C8" s="19">
-        <v>8</v>
-      </c>
-      <c r="D8" s="20"/>
+        <v>4</v>
+      </c>
+      <c r="D8" s="20">
+        <v>4</v>
+      </c>
       <c r="E8" s="19"/>
       <c r="F8" s="20"/>
       <c r="G8" s="19"/>
@@ -4869,11 +4871,11 @@
       </c>
       <c r="C38" s="11">
         <f>IFERROR(IF(B38-SUM(C8:C37)=B38,NA(),B38-SUM(C8:C37)),NA())</f>
+        <v>25</v>
+      </c>
+      <c r="D38" s="11">
+        <f t="shared" ref="D38:V38" si="2">IFERROR(IF(C38-SUM(D8:D37)=C38,NA(),C38-SUM(D8:D37)),NA())</f>
         <v>21</v>
-      </c>
-      <c r="D38" s="11" t="e">
-        <f t="shared" ref="D38:V38" si="2">IFERROR(IF(C38-SUM(D8:D37)=C38,NA(),C38-SUM(D8:D37)),NA())</f>
-        <v>#N/A</v>
       </c>
       <c r="E38" s="11" t="e">
         <f t="shared" si="2"/>

--- a/burndownchart.xlsx
+++ b/burndownchart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NPMa.skp\AppData\Local\Temp\scp32749\home\pihl\GemmeGag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51432139-2A80-43BC-B6A0-711D7F589B90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B963C680-5F6B-419A-A389-40E89F99ED21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{880ECEA2-B438-484A-9CBA-91374F2777E2}"/>
   </bookViews>
@@ -1015,13 +1015,13 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -1565,13 +1565,13 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -3541,10 +3541,10 @@
   <dimension ref="A1:X40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AA8" sqref="AA8"/>
+      <selection pane="bottomRight" activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3854,9 +3854,15 @@
       <c r="B9" s="21">
         <v>6</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="22"/>
+      <c r="C9" s="22">
+        <v>2</v>
+      </c>
+      <c r="D9" s="23">
+        <v>2</v>
+      </c>
+      <c r="E9" s="22">
+        <v>2</v>
+      </c>
       <c r="F9" s="23"/>
       <c r="G9" s="22"/>
       <c r="H9" s="23"/>
@@ -3876,11 +3882,11 @@
       <c r="V9" s="23"/>
       <c r="W9" s="28">
         <f t="shared" ref="W9:W37" si="0">B9-SUM(C9:V9)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X9" s="17">
         <f>IFERROR(1-(W9/B9),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -3891,9 +3897,11 @@
         <v>3</v>
       </c>
       <c r="C10" s="22">
-        <v>3</v>
-      </c>
-      <c r="D10" s="23"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="23">
+        <v>2</v>
+      </c>
       <c r="E10" s="22"/>
       <c r="F10" s="23"/>
       <c r="G10" s="22"/>
@@ -3929,9 +3937,11 @@
         <v>3</v>
       </c>
       <c r="C11" s="22">
-        <v>3</v>
-      </c>
-      <c r="D11" s="23"/>
+        <v>1</v>
+      </c>
+      <c r="D11" s="23">
+        <v>2</v>
+      </c>
       <c r="E11" s="22"/>
       <c r="F11" s="23"/>
       <c r="G11" s="22"/>
@@ -3968,7 +3978,9 @@
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="23"/>
-      <c r="E12" s="22"/>
+      <c r="E12" s="22">
+        <v>1</v>
+      </c>
       <c r="F12" s="23"/>
       <c r="G12" s="22"/>
       <c r="H12" s="23"/>
@@ -3988,11 +4000,11 @@
       <c r="V12" s="23"/>
       <c r="W12" s="28">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X12" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -4004,7 +4016,9 @@
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="23"/>
-      <c r="E13" s="22"/>
+      <c r="E13" s="22">
+        <v>1</v>
+      </c>
       <c r="F13" s="23"/>
       <c r="G13" s="22"/>
       <c r="H13" s="23"/>
@@ -4024,11 +4038,11 @@
       <c r="V13" s="23"/>
       <c r="W13" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X13" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -4040,7 +4054,9 @@
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="23"/>
-      <c r="E14" s="22"/>
+      <c r="E14" s="22">
+        <v>1</v>
+      </c>
       <c r="F14" s="23"/>
       <c r="G14" s="22"/>
       <c r="H14" s="23"/>
@@ -4060,11 +4076,11 @@
       <c r="V14" s="23"/>
       <c r="W14" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X14" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -4871,15 +4887,15 @@
       </c>
       <c r="C38" s="11">
         <f>IFERROR(IF(B38-SUM(C8:C37)=B38,NA(),B38-SUM(C8:C37)),NA())</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D38" s="11">
         <f t="shared" ref="D38:V38" si="2">IFERROR(IF(C38-SUM(D8:D37)=C38,NA(),C38-SUM(D8:D37)),NA())</f>
-        <v>21</v>
-      </c>
-      <c r="E38" s="11" t="e">
+        <v>17</v>
+      </c>
+      <c r="E38" s="11">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>12</v>
       </c>
       <c r="F38" s="11" t="e">
         <f t="shared" si="2"/>
@@ -4951,11 +4967,11 @@
       </c>
       <c r="W38" s="35">
         <f>SUM(W8:W37)</f>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="X38" s="30">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.65714285714285714</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">

--- a/burndownchart.xlsx
+++ b/burndownchart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NPMa.skp\AppData\Local\Temp\scp32749\home\pihl\GemmeGag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B963C680-5F6B-419A-A389-40E89F99ED21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301D5AEF-2768-481C-BDB7-9501D300E1C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{880ECEA2-B438-484A-9CBA-91374F2777E2}"/>
   </bookViews>
@@ -1012,19 +1012,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -1115,22 +1115,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>29.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>22.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>14.800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>7.4000000000000021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.7763568394002505E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1562,19 +1562,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -1714,22 +1714,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>29.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>22.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>14.800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>7.4000000000000021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.7763568394002505E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3541,10 +3541,10 @@
   <dimension ref="A1:X40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AA12" sqref="AA12"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3623,7 +3623,7 @@
       <c r="F3" s="40"/>
       <c r="G3" s="33">
         <f>B38</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3" s="43"/>
       <c r="I3" s="43"/>
@@ -3981,7 +3981,9 @@
       <c r="E12" s="22">
         <v>1</v>
       </c>
-      <c r="F12" s="23"/>
+      <c r="F12" s="23">
+        <v>2</v>
+      </c>
       <c r="G12" s="22"/>
       <c r="H12" s="23"/>
       <c r="I12" s="22"/>
@@ -4000,11 +4002,11 @@
       <c r="V12" s="23"/>
       <c r="W12" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X12" s="17">
         <f t="shared" si="1"/>
-        <v>0.33333333333333337</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -4088,7 +4090,7 @@
         <v>37</v>
       </c>
       <c r="B15" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="23"/>
@@ -4112,7 +4114,7 @@
       <c r="V15" s="23"/>
       <c r="W15" s="28">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X15" s="17">
         <f t="shared" si="1"/>
@@ -4124,7 +4126,7 @@
         <v>38</v>
       </c>
       <c r="B16" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="23"/>
@@ -4148,7 +4150,7 @@
       <c r="V16" s="23"/>
       <c r="W16" s="28">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X16" s="17">
         <f t="shared" si="1"/>
@@ -4237,7 +4239,9 @@
       <c r="C19" s="22"/>
       <c r="D19" s="23"/>
       <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
+      <c r="F19" s="23">
+        <v>1</v>
+      </c>
       <c r="G19" s="22"/>
       <c r="H19" s="23"/>
       <c r="I19" s="22"/>
@@ -4256,11 +4260,11 @@
       <c r="V19" s="23"/>
       <c r="W19" s="28">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4273,7 +4277,9 @@
       <c r="C20" s="22"/>
       <c r="D20" s="23"/>
       <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
+      <c r="F20" s="23">
+        <v>1</v>
+      </c>
       <c r="G20" s="22"/>
       <c r="H20" s="23"/>
       <c r="I20" s="22"/>
@@ -4292,11 +4298,11 @@
       <c r="V20" s="23"/>
       <c r="W20" s="28">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="35.4" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
@@ -4883,23 +4889,23 @@
       </c>
       <c r="B38" s="10">
         <f>SUM(B8:B37)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C38" s="11">
         <f>IFERROR(IF(B38-SUM(C8:C37)=B38,NA(),B38-SUM(C8:C37)),NA())</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D38" s="11">
         <f t="shared" ref="D38:V38" si="2">IFERROR(IF(C38-SUM(D8:D37)=C38,NA(),C38-SUM(D8:D37)),NA())</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E38" s="11">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="F38" s="11" t="e">
+        <v>14</v>
+      </c>
+      <c r="F38" s="11">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>10</v>
       </c>
       <c r="G38" s="11" t="e">
         <f t="shared" si="2"/>
@@ -4967,11 +4973,11 @@
       </c>
       <c r="W38" s="35">
         <f>SUM(W8:W37)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X38" s="30">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.72972972972972971</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -4980,27 +4986,27 @@
       </c>
       <c r="B39" s="12">
         <f>SUM(B8:B37)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C39" s="13">
         <f>IFERROR((IF(B39-($B$38/$G$4) &lt; 0,"-", B39-($B$38/$G$4))),IFERROR(B39-($B$38/20),"-"))</f>
-        <v>28</v>
+        <v>29.6</v>
       </c>
       <c r="D39" s="13">
         <f t="shared" ref="D39:V39" si="3">IFERROR((IF(C39-($B$38/$G$4) &lt; 0,"-", C39-($B$38/$G$4))),IFERROR(C39-($B$38/20),"-"))</f>
-        <v>21</v>
+        <v>22.200000000000003</v>
       </c>
       <c r="E39" s="13">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>14.800000000000002</v>
       </c>
       <c r="F39" s="13">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>7.4000000000000021</v>
       </c>
       <c r="G39" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.7763568394002505E-15</v>
       </c>
       <c r="H39" s="13" t="str">
         <f t="shared" si="3"/>
@@ -5125,7 +5131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACA0E3D-6CA6-4BD2-BA12-8B619DAD9288}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>

--- a/burndownchart.xlsx
+++ b/burndownchart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NPMa.skp\AppData\Local\Temp\scp32749\home\pihl\GemmeGag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301D5AEF-2768-481C-BDB7-9501D300E1C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0CA73E-F086-4D12-B200-DE3AEAE35BE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{880ECEA2-B438-484A-9CBA-91374F2777E2}"/>
   </bookViews>
@@ -1021,10 +1021,10 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -1571,10 +1571,10 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -3544,7 +3544,7 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4094,8 +4094,12 @@
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="23"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
+      <c r="E15" s="22">
+        <v>1</v>
+      </c>
+      <c r="F15" s="23">
+        <v>1</v>
+      </c>
       <c r="G15" s="22"/>
       <c r="H15" s="23"/>
       <c r="I15" s="22"/>
@@ -4114,11 +4118,11 @@
       <c r="V15" s="23"/>
       <c r="W15" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X15" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -4130,8 +4134,12 @@
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="23"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
+      <c r="E16" s="22">
+        <v>1</v>
+      </c>
+      <c r="F16" s="23">
+        <v>1</v>
+      </c>
       <c r="G16" s="22"/>
       <c r="H16" s="23"/>
       <c r="I16" s="22"/>
@@ -4150,11 +4158,11 @@
       <c r="V16" s="23"/>
       <c r="W16" s="28">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X16" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -4901,11 +4909,11 @@
       </c>
       <c r="E38" s="11">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F38" s="11">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G38" s="11" t="e">
         <f t="shared" si="2"/>
@@ -4973,11 +4981,11 @@
       </c>
       <c r="W38" s="35">
         <f>SUM(W8:W37)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="X38" s="30">
         <f t="shared" si="1"/>
-        <v>0.72972972972972971</v>
+        <v>0.83783783783783783</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
